--- a/Sep19/all_countries/Tables/income-M_%tot_tax.xlsx
+++ b/Sep19/all_countries/Tables/income-M_%tot_tax.xlsx
@@ -489,16 +489,16 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.2150956608568527</v>
+        <v>0.2149984677061318</v>
       </c>
       <c r="C2">
-        <v>1007534436142</v>
+        <v>1010352780318</v>
       </c>
       <c r="D2">
-        <v>44453016000000</v>
+        <v>44983624000000</v>
       </c>
       <c r="E2">
-        <v>1072622167.25</v>
+        <v>1096199438.25</v>
       </c>
       <c r="F2">
         <v>14115446032323.57</v>
@@ -507,28 +507,28 @@
         <v>1156444632258.877</v>
       </c>
       <c r="H2">
-        <v>0.2736441287180885</v>
+        <v>0.2735540314618983</v>
       </c>
       <c r="I2">
-        <v>0.1895958173137274</v>
+        <v>0.1904084427958566</v>
       </c>
       <c r="J2">
-        <v>0.3049662455184318</v>
+        <v>0.3045708508911189</v>
       </c>
       <c r="K2">
-        <v>0.2485019170457566</v>
+        <v>0.2487129787810349</v>
       </c>
       <c r="L2">
-        <v>0.0367672632808078</v>
+        <v>0.03675515766920653</v>
       </c>
       <c r="M2">
-        <v>0.02547439758627263</v>
+        <v>0.02558358324718962</v>
       </c>
       <c r="N2">
-        <v>0.1838363164040378</v>
+        <v>0.1837757883460316</v>
       </c>
       <c r="O2">
-        <v>0.1273719879313626</v>
+        <v>0.1279179162359476</v>
       </c>
     </row>
     <row r="3" spans="1:15">
